--- a/ex4/for_fourth_ex.xlsx
+++ b/ex4/for_fourth_ex.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -534,7 +530,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -545,16 +541,18 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -591,7 +589,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -602,16 +600,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -648,7 +648,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -659,16 +659,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -705,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
+          <t>04/01/20</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -716,16 +718,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>01.04.20</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>04/01/20</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -762,7 +766,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
+          <t>04/01/20</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -773,16 +777,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>01.04.20</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>04/01/20</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -819,7 +825,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
+          <t>01/01/21</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -830,16 +836,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>01.01.2021</t>
+          <t>01.01.21</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>01/01/21</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -876,7 +884,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -887,16 +895,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -933,7 +943,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -944,16 +954,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -990,7 +1002,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1001,16 +1013,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1047,7 +1061,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>03.01..2020</t>
+          <t>03/01/20</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1058,16 +1072,18 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>01.03.2020</t>
+          <t>01.03.20</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>03.01..2020</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>03/01/20</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1104,7 +1120,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1115,16 +1131,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1161,7 +1179,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1172,16 +1190,18 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1218,7 +1238,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1229,16 +1249,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1275,7 +1297,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1286,16 +1308,18 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1332,7 +1356,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1343,16 +1367,18 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1389,7 +1415,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1400,16 +1426,18 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1446,7 +1474,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1457,16 +1485,18 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1503,7 +1533,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1514,16 +1544,18 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1560,7 +1592,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1571,16 +1603,18 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1617,7 +1651,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1628,16 +1662,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1674,7 +1710,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1685,16 +1721,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1731,7 +1769,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
+          <t>10/01/20</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1742,16 +1780,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01.10.2020</t>
+          <t>01.10.20</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>10/01/20</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1788,7 +1828,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1799,16 +1839,18 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1845,7 +1887,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1856,16 +1898,18 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1902,7 +1946,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1913,16 +1957,18 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1959,7 +2005,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1970,16 +2016,18 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2016,7 +2064,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
+          <t>10/01/20</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2027,16 +2075,18 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>01.10.2020</t>
+          <t>01.10.20</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>10/01/20</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2073,7 +2123,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2084,16 +2134,18 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2130,7 +2182,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
+          <t>01/01/21</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2141,16 +2193,18 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>01.01.2021</t>
+          <t>01.01.21</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>01/01/21</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2187,7 +2241,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2198,16 +2252,18 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2244,7 +2300,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2255,16 +2311,18 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2301,7 +2359,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2312,16 +2370,18 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2358,7 +2418,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2369,16 +2429,18 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2415,7 +2477,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2426,16 +2488,18 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2472,7 +2536,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2483,16 +2547,18 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2529,7 +2595,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
+          <t>04/01/20</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2540,16 +2606,18 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>01.04.20</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>04/01/20</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2586,7 +2654,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2597,16 +2665,18 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2643,7 +2713,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2654,16 +2724,18 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2700,7 +2772,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2711,16 +2783,18 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2757,7 +2831,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2768,16 +2842,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2814,7 +2890,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2825,16 +2901,18 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2871,7 +2949,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2882,16 +2960,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2928,7 +3008,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2939,16 +3019,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2985,7 +3067,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2996,16 +3078,18 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3042,7 +3126,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
+          <t>01/01/21</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3053,16 +3137,18 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>01.01.2021</t>
+          <t>01.01.21</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>01/01/21</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3099,7 +3185,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3110,16 +3196,18 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3156,7 +3244,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3167,16 +3255,18 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3213,7 +3303,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3224,16 +3314,18 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3270,7 +3362,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3281,16 +3373,18 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3327,7 +3421,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3338,16 +3432,18 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3384,7 +3480,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3395,16 +3491,18 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3441,7 +3539,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3452,16 +3550,18 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3498,7 +3598,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
+          <t>04/01/20</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3509,16 +3609,18 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>01.04.20</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>04/01/20</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3555,7 +3657,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3566,16 +3668,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3612,7 +3716,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3623,16 +3727,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3669,7 +3775,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3680,16 +3786,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3726,7 +3834,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3737,16 +3845,18 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3783,7 +3893,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3794,16 +3904,18 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3840,7 +3952,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3851,16 +3963,18 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3897,7 +4011,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
+          <t>01/01/21</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3908,16 +4022,18 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>01.01.2021</t>
+          <t>01.01.21</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
-        </is>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>01/01/21</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3954,7 +4070,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3965,16 +4081,18 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4011,7 +4129,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4022,16 +4140,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4068,7 +4188,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
+          <t>10/01/20</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -4079,16 +4199,18 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>01.10.2020</t>
+          <t>01.10.20</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
-        </is>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>10/01/20</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4125,7 +4247,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4136,16 +4258,18 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M65" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4182,7 +4306,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4193,16 +4317,18 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M66" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4239,7 +4365,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4250,16 +4376,18 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4296,7 +4424,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4307,16 +4435,18 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M68" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4353,7 +4483,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4364,16 +4494,18 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4410,7 +4542,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4421,16 +4553,18 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M70" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4467,7 +4601,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4478,16 +4612,18 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M71" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4524,7 +4660,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4535,16 +4671,18 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M72" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -4581,7 +4719,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4592,16 +4730,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4638,7 +4778,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4649,16 +4789,18 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4695,7 +4837,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4706,16 +4848,18 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4752,7 +4896,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4763,16 +4907,18 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M76" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4809,7 +4955,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4820,16 +4966,18 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M77" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4866,7 +5014,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4877,16 +5025,18 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M78" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4923,7 +5073,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4934,16 +5084,18 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M79" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4980,7 +5132,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4991,16 +5143,18 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M80" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -5037,7 +5191,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5048,16 +5202,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M81" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -5094,7 +5250,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5105,16 +5261,18 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M82" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5151,7 +5309,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>03.01..2020</t>
+          <t>03/01/20</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5162,16 +5320,18 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>01.03.2020</t>
+          <t>01.03.20</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>03.01..2020</t>
-        </is>
-      </c>
-      <c r="M83" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>03/01/20</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -5208,7 +5368,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5219,16 +5379,18 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M84" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5265,7 +5427,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5276,16 +5438,18 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M85" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -5322,7 +5486,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5333,16 +5497,18 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -5379,7 +5545,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5390,16 +5556,18 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M87" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -5436,7 +5604,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5447,16 +5615,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M88" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -5493,7 +5663,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>03.01..2020</t>
+          <t>03/01/20</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5504,16 +5674,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>01.03.2020</t>
+          <t>01.03.20</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>03.01..2020</t>
-        </is>
-      </c>
-      <c r="M89" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>03/01/20</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -5550,7 +5722,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
+          <t>10/01/20</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -5561,16 +5733,18 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>01.10.2020</t>
+          <t>01.10.20</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>10.01..2020</t>
-        </is>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>10/01/20</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -5607,7 +5781,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5618,16 +5792,18 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M91" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -5664,7 +5840,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -5675,16 +5851,18 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -5721,7 +5899,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5732,16 +5910,18 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M93" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -5778,7 +5958,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -5789,16 +5969,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -5835,7 +6017,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -5846,16 +6028,18 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M95" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -5892,7 +6076,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -5903,16 +6087,18 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M96" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -5949,7 +6135,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
+          <t>07/01/20</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -5960,16 +6146,18 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>01.07.20</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
-        </is>
-      </c>
-      <c r="M97" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>07/01/20</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -6006,7 +6194,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -6017,16 +6205,18 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M98" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -6063,7 +6253,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
+          <t>07/01/20</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -6074,16 +6264,18 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>01.07.20</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
-        </is>
-      </c>
-      <c r="M99" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>07/01/20</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -6120,7 +6312,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -6131,16 +6323,18 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M100" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -6177,7 +6371,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -6188,16 +6382,18 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M101" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -6234,7 +6430,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -6245,16 +6441,18 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M102" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -6291,7 +6489,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
+          <t>07/01/20</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -6302,16 +6500,18 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>01.07.20</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
-        </is>
-      </c>
-      <c r="M103" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>07/01/20</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -6348,7 +6548,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -6359,16 +6559,18 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M104" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -6405,7 +6607,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -6416,16 +6618,18 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M105" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -6462,7 +6666,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -6473,16 +6677,18 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M106" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -6519,7 +6725,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6530,16 +6736,18 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M107" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -6576,7 +6784,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -6587,16 +6795,18 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M108" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -6633,7 +6843,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -6644,16 +6854,18 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M109" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -6690,7 +6902,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -6701,16 +6913,18 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M110" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -6747,7 +6961,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -6758,16 +6972,18 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M111" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -6804,7 +7020,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -6815,16 +7031,18 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M112" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -6861,7 +7079,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -6872,16 +7090,18 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M113" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -6918,7 +7138,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -6929,16 +7149,18 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M114" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -6975,7 +7197,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6986,16 +7208,18 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M115" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -7032,7 +7256,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -7043,16 +7267,18 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M116" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -7089,7 +7315,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -7100,16 +7326,18 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M117" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -7146,7 +7374,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -7157,16 +7385,18 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M118" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -7203,7 +7433,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -7214,16 +7444,18 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M119" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -7260,7 +7492,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -7271,16 +7503,18 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M120" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -7317,7 +7551,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -7328,16 +7562,18 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M121" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -7374,7 +7610,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -7385,16 +7621,18 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M122" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -7431,7 +7669,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
+          <t>01/01/21</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -7442,16 +7680,18 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>01.01.2021</t>
+          <t>01.01.21</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>01.01..2021</t>
-        </is>
-      </c>
-      <c r="M123" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>01/01/21</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -7488,7 +7728,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -7499,16 +7739,18 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M124" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -7545,7 +7787,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7556,16 +7798,18 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M125" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -7602,7 +7846,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7613,16 +7857,18 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M126" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -7659,7 +7905,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -7670,16 +7916,18 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M127" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -7716,7 +7964,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -7727,16 +7975,18 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M128" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -7773,7 +8023,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -7784,16 +8034,18 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M129" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -7830,7 +8082,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -7841,16 +8093,18 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M130" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -7887,7 +8141,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
+          <t>04/01/20</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -7898,16 +8152,18 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>01.04.20</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
-        </is>
-      </c>
-      <c r="M131" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>04/01/20</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -7944,7 +8200,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -7955,16 +8211,18 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M132" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -8001,7 +8259,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -8012,16 +8270,18 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M133" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -8058,7 +8318,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -8069,16 +8329,18 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M134" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -8115,7 +8377,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -8126,16 +8388,18 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M135" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -8172,7 +8436,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -8183,16 +8447,18 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M136" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -8229,7 +8495,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -8240,16 +8506,18 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M137" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -8286,7 +8554,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -8297,16 +8565,18 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M138" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -8343,7 +8613,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -8354,16 +8624,18 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M139" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -8400,7 +8672,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -8411,16 +8683,18 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M140" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -8457,7 +8731,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -8468,16 +8742,18 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M141" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -8514,7 +8790,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -8525,16 +8801,18 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M142" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -8571,7 +8849,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -8582,16 +8860,18 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M143" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -8628,7 +8908,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
+          <t>07/01/20</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -8639,16 +8919,18 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>01.07.20</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
-        </is>
-      </c>
-      <c r="M144" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>07/01/20</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -8685,7 +8967,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -8696,16 +8978,18 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M145" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -8742,7 +9026,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -8753,16 +9037,18 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M146" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -8799,7 +9085,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -8810,16 +9096,18 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M147" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -8856,7 +9144,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -8867,16 +9155,18 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M148" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -8913,7 +9203,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -8924,16 +9214,18 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M149" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -8970,7 +9262,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -8981,16 +9273,18 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>01.06.20</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>06.01..2020</t>
-        </is>
-      </c>
-      <c r="M150" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>06/01/20</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -9027,7 +9321,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -9038,16 +9332,18 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M151" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -9084,7 +9380,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -9095,16 +9391,18 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M152" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -9141,7 +9439,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -9152,16 +9450,18 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M153" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -9198,7 +9498,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -9209,16 +9509,18 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M154" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -9255,7 +9557,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -9266,16 +9568,18 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M155" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -9312,7 +9616,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -9323,16 +9627,18 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M156" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -9369,7 +9675,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -9380,16 +9686,18 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M157" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -9426,7 +9734,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
+          <t>05/01/20</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -9437,16 +9745,18 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>01.05.20</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>05.01..2020</t>
-        </is>
-      </c>
-      <c r="M158" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -9483,7 +9793,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
+          <t>12/01/20</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -9494,16 +9804,18 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>01.12.20</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>12.01..2020</t>
-        </is>
-      </c>
-      <c r="M159" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>12/01/20</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -9540,7 +9852,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
+          <t>08/01/20</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -9551,16 +9863,18 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>01.08.2020</t>
+          <t>01.08.20</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>08.01..2020</t>
-        </is>
-      </c>
-      <c r="M160" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>08/01/20</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -9597,7 +9911,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -9608,16 +9922,18 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M161" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -9654,7 +9970,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -9665,16 +9981,18 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M162" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -9711,7 +10029,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -9722,16 +10040,18 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M163" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -9768,7 +10088,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
+          <t>04/01/20</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -9779,16 +10099,18 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>01.04.2020</t>
+          <t>01.04.20</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>04.01..2020</t>
-        </is>
-      </c>
-      <c r="M164" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>04/01/20</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -9825,7 +10147,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
+          <t>09/01/20</t>
         </is>
       </c>
       <c r="I165" t="n">
@@ -9836,16 +10158,18 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>01.09.20</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>09.01..2020</t>
-        </is>
-      </c>
-      <c r="M165" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>09/01/20</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -9882,7 +10206,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -9893,16 +10217,18 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M166" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -9939,7 +10265,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
+          <t>07/01/20</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -9950,16 +10276,18 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>01.07.20</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>07.01..2020</t>
-        </is>
-      </c>
-      <c r="M167" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>07/01/20</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -9996,7 +10324,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
+          <t>11/01/20</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -10007,16 +10335,18 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>01.11.20</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>11.01..2020</t>
-        </is>
-      </c>
-      <c r="M168" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>11/01/20</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -10053,7 +10383,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -10064,16 +10394,18 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M169" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -10110,7 +10442,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -10121,16 +10453,18 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M170" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -10167,7 +10501,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
+          <t>02/01/20</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -10178,16 +10512,18 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>01.02.2020</t>
+          <t>01.02.20</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>02.01..2020</t>
-        </is>
-      </c>
-      <c r="M171" s="2" t="n">
-        <v>44027.93293701886</v>
+          <t>02/01/20</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>2020-07-17 20:18:04</t>
+        </is>
       </c>
     </row>
   </sheetData>
